--- a/CASUAL/LA TICC/MERJILLA, JEANETTE.xlsx
+++ b/CASUAL/LA TICC/MERJILLA, JEANETTE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,6 +339,24 @@
   </si>
   <si>
     <t>UT(0-1-4)</t>
+  </si>
+  <si>
+    <t>UT(0-0-18)</t>
+  </si>
+  <si>
+    <t>UT(0-5-10)</t>
+  </si>
+  <si>
+    <t>UT(0-0-15)</t>
+  </si>
+  <si>
+    <t>UT(0-1-36)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-5-52)</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1292,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K133" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1633,12 +1651,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <selection pane="bottomLeft" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1815,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>15.85499999999999</v>
+        <v>14.205999999999989</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3440,11 +3458,15 @@
       <c r="A83" s="24">
         <v>44652</v>
       </c>
-      <c r="B83" s="12"/>
+      <c r="B83" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="C83" s="14">
         <v>1.25</v>
       </c>
-      <c r="D83" s="12"/>
+      <c r="D83" s="12">
+        <v>0.73299999999999998</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="12"/>
       <c r="G83" s="14">
@@ -3460,11 +3482,15 @@
       <c r="A84" s="24">
         <v>44682</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="C84" s="14">
         <v>1.25</v>
       </c>
-      <c r="D84" s="12"/>
+      <c r="D84" s="12">
+        <v>2E-3</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="12"/>
       <c r="G84" s="14">
@@ -3503,34 +3529,38 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="24">
-        <v>44743</v>
-      </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D86" s="12"/>
+      <c r="A86" s="24"/>
+      <c r="B86" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="40">
+        <v>0.2</v>
+      </c>
       <c r="E86" s="9"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H86" s="12"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="40"/>
       <c r="I86" s="9"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="39"/>
+      <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="24">
-        <v>44774</v>
-      </c>
-      <c r="B87" s="12"/>
+        <v>44743</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="C87" s="14">
         <v>1.25</v>
       </c>
-      <c r="D87" s="12"/>
+      <c r="D87" s="12">
+        <v>3.1000000000000014E-2</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="12"/>
       <c r="G87" s="14">
@@ -3544,13 +3574,17 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="24">
-        <v>44805</v>
-      </c>
-      <c r="B88" s="12"/>
+        <v>44774</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="C88" s="14">
         <v>1.25</v>
       </c>
-      <c r="D88" s="12"/>
+      <c r="D88" s="12">
+        <v>0.64600000000000002</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="12"/>
       <c r="G88" s="14">
@@ -3564,150 +3598,148 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="24">
-        <v>44835</v>
-      </c>
-      <c r="B89" s="13"/>
+        <v>44805</v>
+      </c>
+      <c r="B89" s="12"/>
       <c r="C89" s="14">
         <v>1.25</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="13"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="12"/>
       <c r="G89" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="47"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="39"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
-        <v>44866</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>100</v>
+        <v>44835</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C90" s="14">
         <v>1.25</v>
       </c>
-      <c r="D90" s="12">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="E90" s="9"/>
-      <c r="F90" s="12"/>
+      <c r="D90" s="13">
+        <v>3.7000000000000019E-2</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="13"/>
       <c r="G90" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H90" s="12"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="47"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="24">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C91" s="14">
         <v>1.25</v>
       </c>
-      <c r="D91" s="12"/>
+      <c r="D91" s="12">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="E91" s="9"/>
       <c r="F91" s="12"/>
       <c r="G91" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H91" s="12">
-        <v>1</v>
-      </c>
+      <c r="H91" s="12"/>
       <c r="I91" s="9"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="39">
-        <v>44914</v>
-      </c>
+      <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
-      <c r="B92" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="40">
-        <v>1.2E-2</v>
-      </c>
+      <c r="A92" s="24">
+        <v>44896</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D92" s="12"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="40"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="12">
+        <v>1</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="39"/>
+      <c r="K92" s="39">
+        <v>44914</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="12"/>
+      <c r="A93" s="24"/>
+      <c r="B93" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="C93" s="14"/>
-      <c r="D93" s="12"/>
+      <c r="D93" s="40">
+        <v>1.2E-2</v>
+      </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="12"/>
+      <c r="F93" s="21"/>
       <c r="G93" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="12"/>
+      <c r="H93" s="40"/>
       <c r="I93" s="9"/>
       <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="K93" s="39"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="24">
-        <v>44927</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C94" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D94" s="12">
-        <v>2</v>
-      </c>
+      <c r="A94" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="12"/>
       <c r="E94" s="9"/>
       <c r="F94" s="12"/>
-      <c r="G94" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G94" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="9"/>
       <c r="J94" s="12"/>
-      <c r="K94" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="24">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C95" s="14">
         <v>1.25</v>
       </c>
       <c r="D95" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="12"/>
@@ -3719,29 +3751,33 @@
       <c r="I95" s="9"/>
       <c r="J95" s="12"/>
       <c r="K95" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
+      <c r="A96" s="24">
+        <v>44958</v>
+      </c>
       <c r="B96" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" s="14"/>
-      <c r="D96" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D96" s="12">
+        <v>3</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="12"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="12">
-        <v>1</v>
-      </c>
+      <c r="G96" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H96" s="12"/>
       <c r="I96" s="9"/>
       <c r="J96" s="12"/>
-      <c r="K96" s="39">
-        <v>44958</v>
+      <c r="K96" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -3763,40 +3799,38 @@
       <c r="I97" s="9"/>
       <c r="J97" s="12"/>
       <c r="K97" s="39">
-        <v>44977</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="24">
-        <v>44986</v>
-      </c>
+      <c r="A98" s="24"/>
       <c r="B98" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C98" s="14">
-        <v>1.25</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C98" s="14"/>
       <c r="D98" s="12"/>
       <c r="E98" s="9"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G98" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H98" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="12"/>
-      <c r="K98" s="21" t="s">
-        <v>96</v>
+      <c r="K98" s="39">
+        <v>44977</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="24">
-        <v>45017</v>
-      </c>
-      <c r="B99" s="12"/>
+        <v>44986</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="C99" s="14">
         <v>1.25</v>
       </c>
@@ -3807,18 +3841,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H99" s="12"/>
+      <c r="H99" s="12">
+        <v>2</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
+      <c r="K99" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="24">
-        <v>45047</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>47</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B100" s="12"/>
       <c r="C100" s="14">
         <v>1.25</v>
       </c>
@@ -3829,18 +3865,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H100" s="12">
-        <v>1</v>
-      </c>
+      <c r="H100" s="12"/>
       <c r="I100" s="9"/>
       <c r="J100" s="12"/>
-      <c r="K100" s="39">
-        <v>45056</v>
-      </c>
+      <c r="K100" s="21"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="24">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>47</v>
@@ -3860,87 +3892,89 @@
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="12"/>
-      <c r="K101" s="21"/>
+      <c r="K101" s="39">
+        <v>45056</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="24">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C102" s="14">
         <v>1.25</v>
       </c>
-      <c r="D102" s="12">
-        <v>1</v>
-      </c>
+      <c r="D102" s="12"/>
       <c r="E102" s="9"/>
       <c r="F102" s="12"/>
       <c r="G102" s="14">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H102" s="12"/>
+      <c r="H102" s="12">
+        <v>1</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="12"/>
-      <c r="K102" s="39">
-        <v>45125</v>
-      </c>
+      <c r="K102" s="21"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="24"/>
+      <c r="A103" s="24">
+        <v>45108</v>
+      </c>
       <c r="B103" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="C103" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D103" s="12">
+        <v>1</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="12"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G103" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="9"/>
       <c r="J103" s="12"/>
-      <c r="K103" s="39" t="s">
-        <v>97</v>
+      <c r="K103" s="39">
+        <v>45125</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="24">
-        <v>45139</v>
-      </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="14">
-        <v>1.25</v>
-      </c>
+      <c r="A104" s="24"/>
+      <c r="B104" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="14"/>
       <c r="D104" s="12"/>
       <c r="E104" s="9"/>
       <c r="F104" s="12"/>
-      <c r="G104" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G104" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="9"/>
       <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
+      <c r="K104" s="39" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
-        <v>45170</v>
-      </c>
-      <c r="B105" s="12" t="s">
-        <v>49</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B105" s="12"/>
       <c r="C105" s="14">
         <v>1.25</v>
       </c>
-      <c r="D105" s="12">
-        <v>1</v>
-      </c>
+      <c r="D105" s="12"/>
       <c r="E105" s="9"/>
       <c r="F105" s="12"/>
       <c r="G105" s="14">
@@ -3950,63 +3984,67 @@
       <c r="H105" s="12"/>
       <c r="I105" s="9"/>
       <c r="J105" s="12"/>
-      <c r="K105" s="39">
-        <v>45188</v>
-      </c>
+      <c r="K105" s="21"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="24"/>
-      <c r="B106" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="40"/>
+      <c r="A106" s="24">
+        <v>45170</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D106" s="12">
+        <v>1</v>
+      </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="40">
-        <v>1</v>
-      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H106" s="12"/>
       <c r="I106" s="9"/>
       <c r="J106" s="12"/>
       <c r="K106" s="39">
-        <v>45180</v>
+        <v>45188</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="24">
-        <v>45200</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>53</v>
+      <c r="A107" s="24"/>
+      <c r="B107" s="21" t="s">
+        <v>47</v>
       </c>
       <c r="C107" s="14"/>
-      <c r="D107" s="12">
-        <v>2</v>
-      </c>
+      <c r="D107" s="40"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="12"/>
+      <c r="F107" s="21"/>
       <c r="G107" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H107" s="12"/>
+      <c r="H107" s="40">
+        <v>1</v>
+      </c>
       <c r="I107" s="9"/>
       <c r="J107" s="12"/>
-      <c r="K107" s="21" t="s">
-        <v>98</v>
+      <c r="K107" s="39">
+        <v>45180</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="24">
-        <v>45231</v>
-      </c>
-      <c r="B108" s="12"/>
+        <v>45200</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="C108" s="14"/>
-      <c r="D108" s="12"/>
+      <c r="D108" s="12">
+        <v>2</v>
+      </c>
       <c r="E108" s="9"/>
       <c r="F108" s="12"/>
       <c r="G108" s="14" t="str">
@@ -4016,11 +4054,13 @@
       <c r="H108" s="12"/>
       <c r="I108" s="9"/>
       <c r="J108" s="12"/>
-      <c r="K108" s="21"/>
+      <c r="K108" s="21" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="24">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="14"/>
@@ -4038,7 +4078,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="14"/>
@@ -4056,7 +4096,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="14"/>
@@ -4074,7 +4114,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="24">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="14"/>
@@ -4092,7 +4132,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="24">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="14"/>
@@ -4110,7 +4150,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="24">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="14"/>
@@ -4128,7 +4168,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="24">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="14"/>
@@ -4146,7 +4186,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="24">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="14"/>
@@ -4164,25 +4204,25 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="24">
-        <v>45505</v>
-      </c>
-      <c r="B117" s="13"/>
+        <v>45474</v>
+      </c>
+      <c r="B117" s="12"/>
       <c r="C117" s="14"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="13"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="12"/>
       <c r="G117" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="13"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="16"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="21"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="24">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="14"/>
@@ -4193,14 +4233,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H118" s="12"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="16"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="24">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="14"/>
@@ -4218,7 +4258,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="24">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="14"/>
@@ -4236,7 +4276,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="24">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="14"/>
@@ -4254,7 +4294,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="24">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="14"/>
@@ -4271,7 +4311,9 @@
       <c r="K122" s="21"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
+      <c r="A123" s="24">
+        <v>45658</v>
+      </c>
       <c r="B123" s="13"/>
       <c r="C123" s="14"/>
       <c r="D123" s="13"/>
@@ -4361,26 +4403,26 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H128" s="13"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="16"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="21"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="24"/>
-      <c r="B129" s="12"/>
+      <c r="B129" s="13"/>
       <c r="C129" s="14"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="12"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="13"/>
       <c r="G129" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H129" s="12"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="21"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="16"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="24"/>
@@ -4432,19 +4474,35 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="24"/>
-      <c r="B133" s="13"/>
+      <c r="B133" s="12"/>
       <c r="C133" s="14"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="13"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="12"/>
       <c r="G133" s="14" t="str">
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H133" s="13"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="16"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="21"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="24"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="13"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6278,14 +6336,14 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="12">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="G3" s="44">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.13300000000000001</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="J3" s="45"/>
       <c r="K3" s="36">
